--- a/tests/xzq.xlsx
+++ b/tests/xzq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="美国" sheetId="1" r:id="rId1"/>
@@ -938,6 +938,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>皮亚季戈尔斯克 Pyatigorsk</t>
     </r>
     <r>
@@ -2105,9 +2112,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -2165,61 +2172,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2234,7 +2194,67 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2249,22 +2269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2280,29 +2294,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,7 +2344,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,19 +2440,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,37 +2500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2415,109 +2524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,36 +2591,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2629,6 +2616,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2657,25 +2653,36 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2688,10 +2695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2700,137 +2707,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2930,19 +2937,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2951,16 +2946,7 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3284,8 +3270,8 @@
   <sheetPr/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3353,1656 +3339,1656 @@
       <c r="J2" s="30"/>
     </row>
     <row r="3" ht="15" spans="1:10">
-      <c r="A3" s="33">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="8">
         <v>133915</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="8">
         <v>4447100</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="8">
         <v>4779736</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="7">
         <v>67</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="7">
         <v>67</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="33">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="8">
         <v>1530693</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="8">
         <v>626932</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="8">
         <v>710231</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>30</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="7">
         <v>30</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="33">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="8">
         <v>295259</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="8">
         <v>5130632</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="8">
         <v>6392017</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="7">
         <v>15</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="7">
         <v>15</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="33">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="8">
         <v>137754</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="8">
         <v>2673400</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="8">
         <v>2915918</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="7">
         <v>75</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="7">
         <v>75</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="33">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="8">
         <v>411407</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="8">
         <v>33871648</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="8">
         <v>37253956</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="7">
         <v>58</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="7">
         <v>58</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="33">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="8">
         <v>269594</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="8">
         <v>4301261</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="8">
         <v>5029196</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="7">
         <v>64</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="7">
         <v>64</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="37">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="35">
         <v>12997</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="35">
         <v>3405565</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <v>3574097</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="28">
         <v>8</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="28">
         <v>0</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="28">
         <v>8</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="33">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="8">
         <v>5294</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="8">
         <v>783600</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="8">
         <v>897934</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="7">
         <v>3</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" ht="26.4" spans="1:10">
-      <c r="A11" s="33">
+      <c r="A11" s="4">
         <v>0</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="7">
         <v>179</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="8">
         <v>572059</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="8">
         <v>601723</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="33">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="8">
         <v>151939</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="8">
         <v>15982378</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="8">
         <v>18801310</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="7">
         <v>67</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="7">
         <v>67</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="33">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="8">
         <v>152576</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="8">
         <v>8186453</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="8">
         <v>9687653</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="7">
         <v>159</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="7">
         <v>159</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="33">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="8">
         <v>16760</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="8">
         <v>1211537</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="8">
         <v>1360301</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="7">
         <v>5</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="33">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="8">
         <v>216430</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="8">
         <v>1293953</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="8">
         <v>1567582</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="7">
         <v>44</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="7">
         <v>44</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="26.4" spans="1:10">
-      <c r="A16" s="33">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="8">
         <v>149885</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="8">
         <v>12419293</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="8">
         <v>12830632</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="7">
         <v>102</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="7">
         <v>102</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="26.4" customHeight="1" spans="1:10">
-      <c r="A17" s="33">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="8">
         <v>94309</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="8">
         <v>6080485</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="8">
         <v>6483802</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="7">
         <v>92</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="7">
         <v>92</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="43" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="33">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="8">
         <v>145752</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="8">
         <v>2926324</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="8">
         <v>3046355</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="7">
         <v>99</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="7">
         <v>99</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="33">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="8">
         <v>213096</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="8">
         <v>2688418</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="8">
         <v>2853118</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="7">
         <v>105</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="7">
         <v>105</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="33">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="8">
         <v>104659</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="8">
         <v>4041769</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="8">
         <v>4339367</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="7">
         <v>120</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="7">
         <v>120</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="33">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="8">
         <v>123677</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="8">
         <v>4468976</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="8">
         <v>4533372</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
         <v>64</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="7">
         <v>64</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="37">
+      <c r="A23" s="17">
         <v>19</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="35">
         <v>86156</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="35">
         <v>1274923</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="35">
         <v>1328361</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="28">
         <v>16</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="28">
         <v>0</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="28">
         <v>16</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:10">
-      <c r="A24" s="33">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="8">
         <v>27091</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="8">
         <v>5296486</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="8">
         <v>5773552</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="7">
         <v>23</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="7">
         <v>24</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:10">
-      <c r="A25" s="37">
+      <c r="A25" s="17">
         <v>21</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="35">
         <v>21445</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="35">
         <v>6349097</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="35">
         <v>6547629</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="28">
         <v>14</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="28">
         <v>0</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="28">
         <v>14</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:10">
-      <c r="A26" s="33">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="8">
         <v>251493</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="8">
         <v>9938444</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="8">
         <v>9883640</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="7">
         <v>83</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="7">
         <v>83</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:10">
-      <c r="A27" s="33">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="8">
         <v>224329</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="8">
         <v>4919479</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="8">
         <v>5303925</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="7">
         <v>87</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="7">
         <v>87</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:10">
-      <c r="A28" s="33">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="8">
         <v>123514</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="8">
         <v>2844658</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="8">
         <v>2967297</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="7">
         <v>82</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="7">
         <v>82</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:10">
-      <c r="A29" s="33">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="8">
         <v>180514</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="8">
         <v>5595211</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="8">
         <v>5988927</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="7">
         <v>114</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="7">
         <v>115</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:10">
-      <c r="A30" s="33">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="8">
         <v>380847</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="8">
         <v>902195</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="8">
         <v>989415</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="7">
         <v>56</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="7">
         <v>56</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:10">
-      <c r="A31" s="33">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="8">
         <v>200349</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="8">
         <v>1711263</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="8">
         <v>1826341</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="7">
         <v>93</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="7">
         <v>93</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:10">
-      <c r="A32" s="33">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="8">
         <v>286352</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="8">
         <v>1998257</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="8">
         <v>2700551</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="7">
         <v>16</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="7">
         <v>17</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:10">
-      <c r="A33" s="37">
+      <c r="A33" s="17">
         <v>29</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="35">
         <v>24032</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="35">
         <v>1235786</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="35">
         <v>1316470</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="28">
         <v>10</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="28">
         <v>0</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="28">
         <v>10</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:10">
-      <c r="A34" s="33">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="8">
         <v>20168</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="8">
         <v>8414350</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="8">
         <v>8791894</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="7">
         <v>21</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="7">
         <v>0</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="7">
         <v>21</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="J34" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:10">
-      <c r="A35" s="33">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="8">
         <v>314924</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="8">
         <v>1819046</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="8">
         <v>2059179</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="7">
         <v>33</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="7">
         <v>0</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="7">
         <v>33</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:10">
-      <c r="A36" s="33">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="8">
         <v>136583</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="8">
         <v>18976457</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="8">
         <v>19378102</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="7">
         <v>62</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="7">
         <v>0</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="7">
         <v>62</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:10">
-      <c r="A37" s="33">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="8">
         <v>136412</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="8">
         <v>8049313</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="8">
         <v>9535483</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="7">
         <v>100</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="7">
         <v>100</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="J37" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:10">
-      <c r="A38" s="33">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="8">
         <v>183117</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="8">
         <v>642200</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="8">
         <v>672591</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="7">
         <v>53</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="7">
         <v>0</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="7">
         <v>53</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:10">
-      <c r="A39" s="33">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="8">
         <v>115998</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="8">
         <v>11353140</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="8">
         <v>11536504</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="7">
         <v>88</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="7">
         <v>0</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="7">
         <v>88</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" ht="26.4" customHeight="1" spans="1:10">
-      <c r="A40" s="33">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="8">
         <v>181185</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="8">
         <v>3450654</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="8">
         <v>3751351</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="7">
         <v>77</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="7">
         <v>0</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="7">
         <v>77</v>
       </c>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="33"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="43" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:10">
-      <c r="A42" s="33">
+      <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="8">
         <v>251418</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="8">
         <v>3421399</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="8">
         <v>3831074</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="7">
         <v>36</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="7">
         <v>0</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="7">
         <v>36</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:10">
-      <c r="A43" s="33">
+      <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="8">
         <v>119251</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="8">
         <v>12281054</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="8">
         <v>12702379</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="7">
         <v>67</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="7">
         <v>0</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="7">
         <v>67</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:10">
-      <c r="A44" s="37">
+      <c r="A44" s="17">
         <v>39</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="35">
         <v>3139</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="35">
         <v>1048319</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="35">
         <v>1052567</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="28">
         <v>5</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="28">
         <v>0</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="28">
         <v>5</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:10">
-      <c r="A45" s="33">
+      <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="8">
         <v>80582</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="8">
         <v>4012012</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="8">
         <v>4625364</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="7">
         <v>46</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="7">
         <v>0</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="7">
         <v>46</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:10">
-      <c r="A46" s="33">
+      <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="8">
         <v>199730</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="8">
         <v>754844</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="8">
         <v>814180</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="7">
         <v>66</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="7">
         <v>0</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="7">
         <v>66</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:10">
-      <c r="A47" s="33">
+      <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="8">
         <v>109152</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="8">
         <v>5689283</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="8">
         <v>6346105</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="7">
         <v>95</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="7">
         <v>0</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="7">
         <v>95</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:10">
-      <c r="A48" s="33">
+      <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="8">
         <v>691027</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="8">
         <v>20851820</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="8">
         <v>25145561</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="7">
         <v>254</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="7">
         <v>0</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="7">
         <v>254</v>
       </c>
-      <c r="J48" s="33" t="s">
+      <c r="J48" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:10">
-      <c r="A49" s="33">
+      <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="8">
         <v>219887</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="8">
         <v>2233169</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="8">
         <v>2763885</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="7">
         <v>29</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="7">
         <v>0</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="7">
         <v>29</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="J49" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:10">
-      <c r="A50" s="37">
+      <c r="A50" s="17">
         <v>45</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="35">
         <v>24900</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="35">
         <v>608827</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="35">
         <v>625741</v>
       </c>
-      <c r="G50" s="40">
+      <c r="G50" s="28">
         <v>14</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="28">
         <v>0</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="28">
         <v>14</v>
       </c>
-      <c r="J50" s="37" t="s">
+      <c r="J50" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:10">
-      <c r="A51" s="33">
+      <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="8">
         <v>105586</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="8">
         <v>7078515</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="8">
         <v>8001024</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="7">
         <v>95</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="7">
         <v>38</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="7">
         <v>133</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:10">
-      <c r="A52" s="33">
+      <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="8">
         <v>176479</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="8">
         <v>5894121</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="8">
         <v>6724540</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="7">
         <v>39</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="7">
         <v>0</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="7">
         <v>39</v>
       </c>
-      <c r="J52" s="33" t="s">
+      <c r="J52" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:10">
-      <c r="A53" s="33">
+      <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="8">
         <v>62758</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="8">
         <v>1808344</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="8">
         <v>1852994</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="7">
         <v>55</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="7">
         <v>0</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="7">
         <v>55</v>
       </c>
-      <c r="J53" s="33" t="s">
+      <c r="J53" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:10">
-      <c r="A54" s="33">
+      <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="8">
         <v>171496</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="8">
         <v>5363675</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="8">
         <v>5686986</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="7">
         <v>72</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="7">
         <v>0</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="7">
         <v>72</v>
       </c>
-      <c r="J54" s="33" t="s">
+      <c r="J54" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:10">
-      <c r="A55" s="33">
+      <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="8">
         <v>253324</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="8">
         <v>493782</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="8">
         <v>563626</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="7">
         <v>23</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="7">
         <v>23</v>
       </c>
-      <c r="J55" s="33" t="s">
+      <c r="J55" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5108,7 +5094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" ht="24" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>171</v>
@@ -5148,7 +5134,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" ht="39.6" spans="1:7">
+    <row r="4" ht="26.4" spans="1:7">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="22" t="s">
@@ -5159,7 +5145,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" ht="39.6" spans="1:7">
+    <row r="5" ht="26.4" spans="1:7">
       <c r="A5" s="4">
         <v>14</v>
       </c>
@@ -5205,7 +5191,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" ht="39.6" spans="1:7">
+    <row r="7" ht="26.4" spans="1:7">
       <c r="A7" s="4">
         <v>17</v>
       </c>
@@ -5228,7 +5214,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" ht="39.6" spans="1:7">
+    <row r="8" ht="26.4" spans="1:7">
       <c r="A8" s="4">
         <v>20</v>
       </c>
@@ -5251,7 +5237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" ht="39.6" spans="1:7">
+    <row r="9" ht="26.4" spans="1:7">
       <c r="A9" s="4">
         <v>24</v>
       </c>
@@ -5274,7 +5260,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" ht="39.6" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>28</v>
       </c>
@@ -5297,7 +5283,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" ht="26.4" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>29</v>
       </c>
@@ -5320,7 +5306,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" ht="52.8" spans="1:7">
+    <row r="12" ht="26.4" spans="1:7">
       <c r="A12" s="4">
         <v>34</v>
       </c>
@@ -5389,7 +5375,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" ht="39.6" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>45</v>
       </c>
@@ -5412,7 +5398,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" ht="39.6" spans="1:7">
+    <row r="16" ht="26.4" spans="1:7">
       <c r="A16" s="4">
         <v>46</v>
       </c>
@@ -5435,7 +5421,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" ht="39.6" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>54</v>
       </c>
@@ -5458,7 +5444,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" ht="26.4" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>61</v>
       </c>
@@ -5481,7 +5467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" ht="52.8" spans="1:7">
+    <row r="19" ht="26.4" spans="1:7">
       <c r="A19" s="4">
         <v>66</v>
       </c>
@@ -5504,7 +5490,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" ht="39.6" spans="1:7">
+    <row r="20" ht="26.4" spans="1:7">
       <c r="A20" s="4">
         <v>68</v>
       </c>
@@ -5527,7 +5513,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" ht="26.4" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>70</v>
       </c>
@@ -5550,7 +5536,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" ht="39.6" spans="1:7">
+    <row r="22" ht="26.4" spans="1:7">
       <c r="A22" s="4">
         <v>78</v>
       </c>
@@ -5596,7 +5582,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" ht="39.6" spans="1:7">
+    <row r="24" ht="26.4" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="22" t="s">
@@ -5607,7 +5593,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" ht="52.8" spans="1:7">
+    <row r="25" ht="26.4" spans="1:7">
       <c r="A25" s="4">
         <v>11</v>
       </c>
@@ -5645,7 +5631,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" ht="52.8" spans="1:7">
+    <row r="27" ht="26.4" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>240</v>
@@ -5664,7 +5650,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" ht="39.6" spans="1:7">
+    <row r="28" ht="26.4" spans="1:7">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -5687,7 +5673,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" ht="52.8" spans="1:7">
+    <row r="29" ht="26.4" spans="1:7">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -5710,7 +5696,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" ht="52.8" spans="1:7">
+    <row r="30" ht="26.4" spans="1:7">
       <c r="A30" s="4">
         <v>40</v>
       </c>
@@ -5733,7 +5719,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" ht="52.8" spans="1:7">
+    <row r="31" ht="26.4" spans="1:7">
       <c r="A31" s="4">
         <v>41</v>
       </c>
@@ -5756,7 +5742,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" ht="52.8" spans="1:7">
+    <row r="32" ht="26.4" spans="1:7">
       <c r="A32" s="4">
         <v>47</v>
       </c>
@@ -5779,7 +5765,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" ht="52.8" spans="1:7">
+    <row r="33" ht="26.4" spans="1:7">
       <c r="A33" s="4">
         <v>49</v>
       </c>
@@ -5825,7 +5811,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" ht="52.8" spans="1:7">
+    <row r="35" ht="26.4" spans="1:7">
       <c r="A35" s="4">
         <v>86</v>
       </c>
@@ -5848,7 +5834,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" ht="39.6" spans="1:7">
+    <row r="36" ht="26.4" spans="1:7">
       <c r="A36" s="4">
         <v>87</v>
       </c>
@@ -5894,7 +5880,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" ht="39.6" spans="1:7">
+    <row r="38" ht="36" spans="1:7">
       <c r="A38" s="17"/>
       <c r="B38" s="25" t="s">
         <v>270</v>
@@ -5909,7 +5895,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" ht="52.8" spans="1:7">
+    <row r="39" ht="39.6" spans="1:7">
       <c r="A39" s="4">
         <v>3</v>
       </c>
@@ -5932,7 +5918,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" ht="52.8" spans="1:7">
+    <row r="40" ht="26.4" spans="1:7">
       <c r="A40" s="4">
         <v>12</v>
       </c>
@@ -5955,7 +5941,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="41" ht="52.8" spans="1:7">
+    <row r="41" ht="26.4" spans="1:7">
       <c r="A41" s="4">
         <v>18</v>
       </c>
@@ -6001,7 +5987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" ht="26.4" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6012,7 +5998,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" ht="39.6" spans="1:7">
+    <row r="44" ht="26.4" spans="1:7">
       <c r="A44" s="4">
         <v>79</v>
       </c>
@@ -6035,7 +6021,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" ht="39.6" spans="1:7">
+    <row r="45" ht="26.4" spans="1:7">
       <c r="A45" s="4">
         <v>85</v>
       </c>
@@ -6139,7 +6125,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" ht="39.6" spans="1:7">
+    <row r="51" ht="26.4" spans="1:7">
       <c r="A51" s="17"/>
       <c r="B51" s="25" t="s">
         <v>297</v>
@@ -6154,7 +6140,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" ht="52.8" spans="1:7">
+    <row r="52" ht="39.6" spans="1:7">
       <c r="A52" s="4">
         <v>7</v>
       </c>
@@ -6177,7 +6163,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" ht="39.6" spans="1:7">
+    <row r="53" ht="26.4" spans="1:7">
       <c r="A53" s="4">
         <v>26</v>
       </c>
@@ -6200,7 +6186,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" ht="52.8" spans="1:7">
+    <row r="54" ht="26.4" spans="1:7">
       <c r="A54" s="4">
         <v>82</v>
       </c>
@@ -6246,7 +6232,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" ht="26.4" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="11" t="s">
         <v>311</v>
@@ -6282,7 +6268,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" ht="26.4" spans="1:7">
+    <row r="58" spans="1:7">
       <c r="A58" s="4"/>
       <c r="B58" s="11" t="s">
         <v>311</v>
@@ -6318,7 +6304,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="60" ht="26.4" spans="1:7">
+    <row r="60" spans="1:7">
       <c r="A60" s="4"/>
       <c r="B60" s="11" t="s">
         <v>311</v>
@@ -6331,7 +6317,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" ht="39.6" spans="1:7">
+    <row r="61" ht="26.4" spans="1:7">
       <c r="A61" s="4">
         <v>96</v>
       </c>
@@ -6377,7 +6363,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" ht="39.6" spans="1:7">
+    <row r="63" ht="26.4" spans="1:7">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="29" t="s">
@@ -6397,7 +6383,7 @@
       <c r="F64" s="20"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" ht="66" spans="1:7">
+    <row r="65" ht="26.4" spans="1:7">
       <c r="A65" s="4">
         <v>22</v>
       </c>
@@ -6420,7 +6406,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" ht="26.4" spans="1:7">
+    <row r="66" spans="1:7">
       <c r="A66" s="4">
         <v>33</v>
       </c>
@@ -6443,7 +6429,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" ht="39.6" spans="1:7">
+    <row r="67" spans="1:7">
       <c r="A67" s="4">
         <v>36</v>
       </c>
@@ -6466,7 +6452,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" ht="39.6" spans="1:7">
+    <row r="68" ht="26.4" spans="1:7">
       <c r="A68" s="4">
         <v>53</v>
       </c>
@@ -6489,7 +6475,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" ht="39.6" spans="1:7">
+    <row r="69" ht="26.4" spans="1:7">
       <c r="A69" s="4">
         <v>56</v>
       </c>
@@ -6535,7 +6521,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="71" ht="39.6" spans="1:7">
+    <row r="71" ht="26.4" spans="1:7">
       <c r="A71" s="4">
         <v>63</v>
       </c>
@@ -6558,7 +6544,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" ht="39.6" spans="1:7">
+    <row r="72" ht="26.4" spans="1:7">
       <c r="A72" s="4">
         <v>73</v>
       </c>
@@ -6604,7 +6590,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" ht="52.8" spans="1:7">
+    <row r="74" ht="26.4" spans="1:7">
       <c r="A74" s="4">
         <v>88</v>
       </c>
@@ -6650,7 +6636,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" ht="39.6" spans="1:7">
+    <row r="76" ht="26.4" spans="1:7">
       <c r="A76" s="4">
         <v>92</v>
       </c>
@@ -6673,7 +6659,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="77" ht="39.6" spans="1:7">
+    <row r="77" ht="26.4" spans="1:7">
       <c r="A77" s="4">
         <v>94</v>
       </c>
@@ -6696,7 +6682,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" ht="39.6" spans="1:7">
+    <row r="78" ht="26.4" spans="1:7">
       <c r="A78" s="4">
         <v>97</v>
       </c>
@@ -6742,7 +6728,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" ht="39.6" spans="1:7">
+    <row r="80" ht="26.4" spans="1:7">
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="22" t="s">
@@ -6753,7 +6739,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" ht="39.6" spans="1:7">
+    <row r="81" spans="1:7">
       <c r="A81" s="4">
         <v>37</v>
       </c>
@@ -6776,7 +6762,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" ht="52.8" spans="1:7">
+    <row r="82" ht="39.6" spans="1:7">
       <c r="A82" s="4">
         <v>65</v>
       </c>
@@ -6799,7 +6785,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" ht="39.6" spans="1:7">
+    <row r="83" spans="1:7">
       <c r="A83" s="4">
         <v>71</v>
       </c>
@@ -6886,7 +6872,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="88" ht="39.6" spans="1:7">
+    <row r="88" ht="26.4" spans="1:7">
       <c r="A88" s="4">
         <v>75</v>
       </c>
@@ -6932,7 +6918,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="90" ht="39.6" spans="1:7">
+    <row r="90" ht="26.4" spans="1:7">
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="22" t="s">
@@ -6966,7 +6952,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="92" ht="52.8" spans="1:7">
+    <row r="92" ht="39.6" spans="1:7">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -6989,7 +6975,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="93" ht="39.6" spans="1:7">
+    <row r="93" ht="26.4" spans="1:7">
       <c r="A93" s="4">
         <v>32</v>
       </c>
@@ -7012,7 +6998,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="94" ht="52.8" spans="1:7">
+    <row r="94" ht="26.4" spans="1:7">
       <c r="A94" s="4">
         <v>50</v>
       </c>
@@ -7081,7 +7067,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="97" ht="52.8" spans="1:7">
+    <row r="97" ht="26.4" spans="1:7">
       <c r="A97" s="4">
         <v>84</v>
       </c>
@@ -7104,7 +7090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" ht="39.6" spans="1:7">
+    <row r="98" ht="26.4" spans="1:7">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -7173,7 +7159,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="101" ht="39.6" spans="1:7">
+    <row r="101" ht="26.4" spans="1:7">
       <c r="A101" s="4">
         <v>81</v>
       </c>
@@ -7196,7 +7182,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" ht="39.6" spans="1:7">
+    <row r="102" ht="26.4" spans="1:7">
       <c r="A102" s="4">
         <v>76</v>
       </c>
@@ -7242,7 +7228,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="104" ht="39.6" spans="1:7">
+    <row r="104" ht="26.4" spans="1:7">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="22" t="s">
@@ -7276,7 +7262,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="106" ht="39.6" spans="1:7">
+    <row r="106" spans="1:7">
       <c r="A106" s="4">
         <v>10</v>
       </c>
@@ -7322,7 +7308,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" ht="39.6" spans="1:7">
+    <row r="108" ht="26.4" spans="1:7">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11" t="s">
@@ -7356,7 +7342,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="110" ht="39.6" spans="1:7">
+    <row r="110" ht="26.4" spans="1:7">
       <c r="A110" s="4">
         <v>5</v>
       </c>
@@ -7379,7 +7365,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" ht="66" spans="1:7">
+    <row r="111" ht="26.4" spans="1:7">
       <c r="A111" s="4">
         <v>64</v>
       </c>
@@ -7425,7 +7411,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="113" ht="52.8" spans="1:7">
+    <row r="113" spans="1:7">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7436,7 +7422,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="114" ht="39.6" spans="1:7">
+    <row r="114" ht="26.4" spans="1:7">
       <c r="A114" s="4">
         <v>44</v>
       </c>
@@ -7482,7 +7468,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" ht="39.6" spans="1:7">
+    <row r="116" ht="26.4" spans="1:7">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11" t="s">
@@ -7621,8 +7607,8 @@
   <sheetPr/>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9648,7 +9634,7 @@
   <sheetPr/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9708,7 +9694,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" ht="24" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>573</v>
@@ -9754,7 +9740,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="26.4" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>16</v>
       </c>
@@ -10508,7 +10494,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" ht="26.4" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>53</v>
       </c>
@@ -10562,7 +10548,7 @@
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" ht="26.4" spans="1:9">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>57</v>
       </c>
